--- a/student_login.xlsx
+++ b/student_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Work\work-script\refund-application\cleanbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50171873-6A83-456F-A2FE-B6AB14356AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA824B0B-8015-422D-B4D4-FB848BBBD84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,10 +293,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -325,6 +325,14 @@
         <v>42604</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>33232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
